--- a/data/labeled_claims/fertility_rate_claims.xlsx
+++ b/data/labeled_claims/fertility_rate_claims.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="502">
   <si>
     <t>Y</t>
   </si>
@@ -1530,6 +1530,9 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>sentence</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1933,7 @@
   <dimension ref="A1:L310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1939,6 +1942,9 @@
       <c r="A1" t="s">
         <v>500</v>
       </c>
+      <c r="C1" t="s">
+        <v>501</v>
+      </c>
       <c r="D1" t="s">
         <v>498</v>
       </c>

--- a/data/labeled_claims/fertility_rate_claims.xlsx
+++ b/data/labeled_claims/fertility_rate_claims.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="503">
   <si>
     <t>Y</t>
   </si>
@@ -1533,6 +1533,9 @@
   </si>
   <si>
     <t>sentence</t>
+  </si>
+  <si>
+    <t>dep</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1936,7 @@
   <dimension ref="A1:L310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1954,6 +1957,9 @@
       <c r="G1" t="s">
         <v>497</v>
       </c>
+      <c r="I1" t="s">
+        <v>502</v>
+      </c>
       <c r="J1" t="s">
         <v>496</v>
       </c>
